--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gal-Gpr151.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gal-Gpr151.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>5.834515</v>
+        <v>1.776285</v>
       </c>
       <c r="H2">
-        <v>17.503545</v>
+        <v>5.328855000000001</v>
       </c>
       <c r="I2">
-        <v>0.1959004657849387</v>
+        <v>0.2250740306326953</v>
       </c>
       <c r="J2">
-        <v>0.1959004657849387</v>
+        <v>0.2250740306326953</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6354703333333334</v>
+        <v>1.059024</v>
       </c>
       <c r="N2">
-        <v>1.906411</v>
+        <v>3.177072</v>
       </c>
       <c r="O2">
-        <v>0.3462157388868458</v>
+        <v>0.401751683632714</v>
       </c>
       <c r="P2">
-        <v>0.3462157388868458</v>
+        <v>0.401751683632714</v>
       </c>
       <c r="Q2">
-        <v>3.707661191888333</v>
+        <v>1.88112844584</v>
       </c>
       <c r="R2">
-        <v>33.368950726995</v>
+        <v>16.93015601256</v>
       </c>
       <c r="S2">
-        <v>0.0678238245100098</v>
+        <v>0.09042387074868638</v>
       </c>
       <c r="T2">
-        <v>0.06782382451000982</v>
+        <v>0.09042387074868638</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>5.834515</v>
+        <v>1.776285</v>
       </c>
       <c r="H3">
-        <v>17.503545</v>
+        <v>5.328855000000001</v>
       </c>
       <c r="I3">
-        <v>0.1959004657849387</v>
+        <v>0.2250740306326953</v>
       </c>
       <c r="J3">
-        <v>0.1959004657849387</v>
+        <v>0.2250740306326953</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.243765</v>
       </c>
       <c r="O3">
-        <v>0.22587522757506</v>
+        <v>0.1572783628427189</v>
       </c>
       <c r="P3">
-        <v>0.22587522757506</v>
+        <v>0.1572783628427188</v>
       </c>
       <c r="Q3">
-        <v>2.418921849658333</v>
+        <v>0.7364270376750002</v>
       </c>
       <c r="R3">
-        <v>21.770296646925</v>
+        <v>6.627843339075001</v>
       </c>
       <c r="S3">
-        <v>0.04424906229123329</v>
+        <v>0.03539927505632227</v>
       </c>
       <c r="T3">
-        <v>0.04424906229123329</v>
+        <v>0.03539927505632227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>5.834515</v>
+        <v>1.776285</v>
       </c>
       <c r="H4">
-        <v>17.503545</v>
+        <v>5.328855000000001</v>
       </c>
       <c r="I4">
-        <v>0.1959004657849387</v>
+        <v>0.2250740306326953</v>
       </c>
       <c r="J4">
-        <v>0.1959004657849387</v>
+        <v>0.2250740306326953</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.479019</v>
+        <v>0.9285883333333333</v>
       </c>
       <c r="N4">
-        <v>1.437057</v>
+        <v>2.785765</v>
       </c>
       <c r="O4">
-        <v>0.2609782208964982</v>
+        <v>0.3522695673736974</v>
       </c>
       <c r="P4">
-        <v>0.2609782208964982</v>
+        <v>0.3522695673736974</v>
       </c>
       <c r="Q4">
-        <v>2.794843540785</v>
+        <v>1.649437527675</v>
       </c>
       <c r="R4">
-        <v>25.153591867065</v>
+        <v>14.844937749075</v>
       </c>
       <c r="S4">
-        <v>0.05112575503334862</v>
+        <v>0.0792867313980339</v>
       </c>
       <c r="T4">
-        <v>0.05112575503334862</v>
+        <v>0.07928673139803388</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>5.834515</v>
+        <v>1.776285</v>
       </c>
       <c r="H5">
-        <v>17.503545</v>
+        <v>5.328855000000001</v>
       </c>
       <c r="I5">
-        <v>0.1959004657849387</v>
+        <v>0.2250740306326953</v>
       </c>
       <c r="J5">
-        <v>0.1959004657849387</v>
+        <v>0.2250740306326953</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3063973333333334</v>
+        <v>0.2338156666666666</v>
       </c>
       <c r="N5">
-        <v>0.919192</v>
+        <v>0.7014469999999999</v>
       </c>
       <c r="O5">
-        <v>0.166930812641596</v>
+        <v>0.08870038615086982</v>
       </c>
       <c r="P5">
-        <v>0.166930812641596</v>
+        <v>0.08870038615086982</v>
       </c>
       <c r="Q5">
-        <v>1.787679837293333</v>
+        <v>0.415323261465</v>
       </c>
       <c r="R5">
-        <v>16.08911853564</v>
+        <v>3.737909353185</v>
       </c>
       <c r="S5">
-        <v>0.03270182395034698</v>
+        <v>0.01996415342965278</v>
       </c>
       <c r="T5">
-        <v>0.03270182395034699</v>
+        <v>0.01996415342965278</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.222872</v>
       </c>
       <c r="I6">
-        <v>0.04726257405286619</v>
+        <v>0.1783607964348723</v>
       </c>
       <c r="J6">
-        <v>0.04726257405286619</v>
+        <v>0.1783607964348722</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6354703333333334</v>
+        <v>1.059024</v>
       </c>
       <c r="N6">
-        <v>1.906411</v>
+        <v>3.177072</v>
       </c>
       <c r="O6">
-        <v>0.3462157388868458</v>
+        <v>0.401751683632714</v>
       </c>
       <c r="P6">
-        <v>0.3462157388868458</v>
+        <v>0.401751683632714</v>
       </c>
       <c r="Q6">
-        <v>0.894503292488</v>
+        <v>1.490707598976</v>
       </c>
       <c r="R6">
-        <v>8.050529632391999</v>
+        <v>13.416368390784</v>
       </c>
       <c r="S6">
-        <v>0.01636304699740733</v>
+        <v>0.0716567502617817</v>
       </c>
       <c r="T6">
-        <v>0.01636304699740733</v>
+        <v>0.07165675026178168</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.222872</v>
       </c>
       <c r="I7">
-        <v>0.04726257405286619</v>
+        <v>0.1783607964348723</v>
       </c>
       <c r="J7">
-        <v>0.04726257405286619</v>
+        <v>0.1783607964348722</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.243765</v>
       </c>
       <c r="O7">
-        <v>0.22587522757506</v>
+        <v>0.1572783628427189</v>
       </c>
       <c r="P7">
-        <v>0.22587522757506</v>
+        <v>0.1572783628427188</v>
       </c>
       <c r="Q7">
         <v>0.58358448812</v>
@@ -883,10 +883,10 @@
         <v>5.252260393079999</v>
       </c>
       <c r="S7">
-        <v>0.01067544466997428</v>
+        <v>0.02805229405860016</v>
       </c>
       <c r="T7">
-        <v>0.01067544466997428</v>
+        <v>0.02805229405860015</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.222872</v>
       </c>
       <c r="I8">
-        <v>0.04726257405286619</v>
+        <v>0.1783607964348723</v>
       </c>
       <c r="J8">
-        <v>0.04726257405286619</v>
+        <v>0.1783607964348722</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.479019</v>
+        <v>0.9285883333333333</v>
       </c>
       <c r="N8">
-        <v>1.437057</v>
+        <v>2.785765</v>
       </c>
       <c r="O8">
-        <v>0.2609782208964982</v>
+        <v>0.3522695673736974</v>
       </c>
       <c r="P8">
-        <v>0.2609782208964982</v>
+        <v>0.3522695673736974</v>
       </c>
       <c r="Q8">
-        <v>0.674278640856</v>
+        <v>1.30710322412</v>
       </c>
       <c r="R8">
-        <v>6.068507767703999</v>
+        <v>11.76392901708</v>
       </c>
       <c r="S8">
-        <v>0.01233450249130602</v>
+        <v>0.06283108059654056</v>
       </c>
       <c r="T8">
-        <v>0.01233450249130602</v>
+        <v>0.06283108059654055</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.222872</v>
       </c>
       <c r="I9">
-        <v>0.04726257405286619</v>
+        <v>0.1783607964348723</v>
       </c>
       <c r="J9">
-        <v>0.04726257405286619</v>
+        <v>0.1783607964348722</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3063973333333334</v>
+        <v>0.2338156666666666</v>
       </c>
       <c r="N9">
-        <v>0.919192</v>
+        <v>0.7014469999999999</v>
       </c>
       <c r="O9">
-        <v>0.166930812641596</v>
+        <v>0.08870038615086982</v>
       </c>
       <c r="P9">
-        <v>0.166930812641596</v>
+        <v>0.08870038615086982</v>
       </c>
       <c r="Q9">
-        <v>0.431292239936</v>
+        <v>0.3291245439759999</v>
       </c>
       <c r="R9">
-        <v>3.881630159424</v>
+        <v>2.962120895784</v>
       </c>
       <c r="S9">
-        <v>0.00788957989417856</v>
+        <v>0.01582067151794985</v>
       </c>
       <c r="T9">
-        <v>0.00788957989417856</v>
+        <v>0.01582067151794985</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.67710466666666</v>
+        <v>4.248107333333333</v>
       </c>
       <c r="H10">
-        <v>65.03131399999999</v>
+        <v>12.744322</v>
       </c>
       <c r="I10">
-        <v>0.7278334019312434</v>
+        <v>0.5382799720054182</v>
       </c>
       <c r="J10">
-        <v>0.7278334019312434</v>
+        <v>0.5382799720054181</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6354703333333334</v>
+        <v>1.059024</v>
       </c>
       <c r="N10">
-        <v>1.906411</v>
+        <v>3.177072</v>
       </c>
       <c r="O10">
-        <v>0.3462157388868458</v>
+        <v>0.401751683632714</v>
       </c>
       <c r="P10">
-        <v>0.3462157388868458</v>
+        <v>0.401751683632714</v>
       </c>
       <c r="Q10">
-        <v>13.77515692822822</v>
+        <v>4.498847620576</v>
       </c>
       <c r="R10">
-        <v>123.976412354054</v>
+        <v>40.489628585184</v>
       </c>
       <c r="S10">
-        <v>0.251987379036152</v>
+        <v>0.2162548850189469</v>
       </c>
       <c r="T10">
-        <v>0.251987379036152</v>
+        <v>0.2162548850189469</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.67710466666666</v>
+        <v>4.248107333333333</v>
       </c>
       <c r="H11">
-        <v>65.03131399999999</v>
+        <v>12.744322</v>
       </c>
       <c r="I11">
-        <v>0.7278334019312434</v>
+        <v>0.5382799720054182</v>
       </c>
       <c r="J11">
-        <v>0.7278334019312434</v>
+        <v>0.5382799720054181</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.243765</v>
       </c>
       <c r="O11">
-        <v>0.22587522757506</v>
+        <v>0.1572783628427189</v>
       </c>
       <c r="P11">
-        <v>0.22587522757506</v>
+        <v>0.1572783628427188</v>
       </c>
       <c r="Q11">
-        <v>8.987074695245555</v>
+        <v>1.761215739147778</v>
       </c>
       <c r="R11">
-        <v>80.88367225720999</v>
+        <v>15.85094165233</v>
       </c>
       <c r="S11">
-        <v>0.1643995352979497</v>
+        <v>0.08465979274803673</v>
       </c>
       <c r="T11">
-        <v>0.1643995352979497</v>
+        <v>0.08465979274803669</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.67710466666666</v>
+        <v>4.248107333333333</v>
       </c>
       <c r="H12">
-        <v>65.03131399999999</v>
+        <v>12.744322</v>
       </c>
       <c r="I12">
-        <v>0.7278334019312434</v>
+        <v>0.5382799720054182</v>
       </c>
       <c r="J12">
-        <v>0.7278334019312434</v>
+        <v>0.5382799720054181</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.479019</v>
+        <v>0.9285883333333333</v>
       </c>
       <c r="N12">
-        <v>1.437057</v>
+        <v>2.785765</v>
       </c>
       <c r="O12">
-        <v>0.2609782208964982</v>
+        <v>0.3522695673736974</v>
       </c>
       <c r="P12">
-        <v>0.2609782208964982</v>
+        <v>0.3522695673736974</v>
       </c>
       <c r="Q12">
-        <v>10.383745000322</v>
+        <v>3.944742908481111</v>
       </c>
       <c r="R12">
-        <v>93.45370500289799</v>
+        <v>35.50268617633</v>
       </c>
       <c r="S12">
-        <v>0.1899486663450618</v>
+        <v>0.1896196528642746</v>
       </c>
       <c r="T12">
-        <v>0.1899486663450618</v>
+        <v>0.1896196528642746</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.67710466666666</v>
+        <v>4.248107333333333</v>
       </c>
       <c r="H13">
-        <v>65.03131399999999</v>
+        <v>12.744322</v>
       </c>
       <c r="I13">
-        <v>0.7278334019312434</v>
+        <v>0.5382799720054182</v>
       </c>
       <c r="J13">
-        <v>0.7278334019312434</v>
+        <v>0.5382799720054181</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3063973333333334</v>
+        <v>0.2338156666666666</v>
       </c>
       <c r="N13">
-        <v>0.919192</v>
+        <v>0.7014469999999999</v>
       </c>
       <c r="O13">
-        <v>0.166930812641596</v>
+        <v>0.08870038615086982</v>
       </c>
       <c r="P13">
-        <v>0.166930812641596</v>
+        <v>0.08870038615086982</v>
       </c>
       <c r="Q13">
-        <v>6.641807064254222</v>
+        <v>0.9932740482148888</v>
       </c>
       <c r="R13">
-        <v>59.776263578288</v>
+        <v>8.939466433933999</v>
       </c>
       <c r="S13">
-        <v>0.1214978212520798</v>
+        <v>0.04774564137415999</v>
       </c>
       <c r="T13">
-        <v>0.1214978212520798</v>
+        <v>0.04774564137415999</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.8638146666666667</v>
+        <v>0.459987</v>
       </c>
       <c r="H14">
-        <v>2.591444</v>
+        <v>1.379961</v>
       </c>
       <c r="I14">
-        <v>0.02900355823095177</v>
+        <v>0.05828520092701431</v>
       </c>
       <c r="J14">
-        <v>0.02900355823095177</v>
+        <v>0.0582852009270143</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6354703333333334</v>
+        <v>1.059024</v>
       </c>
       <c r="N14">
-        <v>1.906411</v>
+        <v>3.177072</v>
       </c>
       <c r="O14">
-        <v>0.3462157388868458</v>
+        <v>0.401751683632714</v>
       </c>
       <c r="P14">
-        <v>0.3462157388868458</v>
+        <v>0.401751683632714</v>
       </c>
       <c r="Q14">
-        <v>0.5489285941648889</v>
+        <v>0.4871372726879999</v>
       </c>
       <c r="R14">
-        <v>4.940357347484</v>
+        <v>4.384235454192</v>
       </c>
       <c r="S14">
-        <v>0.01004148834327663</v>
+        <v>0.02341617760329902</v>
       </c>
       <c r="T14">
-        <v>0.01004148834327663</v>
+        <v>0.02341617760329901</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.8638146666666667</v>
+        <v>0.459987</v>
       </c>
       <c r="H15">
-        <v>2.591444</v>
+        <v>1.379961</v>
       </c>
       <c r="I15">
-        <v>0.02900355823095177</v>
+        <v>0.05828520092701431</v>
       </c>
       <c r="J15">
-        <v>0.02900355823095177</v>
+        <v>0.0582852009270143</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.243765</v>
       </c>
       <c r="O15">
-        <v>0.22587522757506</v>
+        <v>0.1572783628427189</v>
       </c>
       <c r="P15">
-        <v>0.22587522757506</v>
+        <v>0.1572783628427188</v>
       </c>
       <c r="Q15">
-        <v>0.3581274829622222</v>
+        <v>0.190705243685</v>
       </c>
       <c r="R15">
-        <v>3.22314734666</v>
+        <v>1.716347193165</v>
       </c>
       <c r="S15">
-        <v>0.006551185315902736</v>
+        <v>0.009167000979759731</v>
       </c>
       <c r="T15">
-        <v>0.006551185315902737</v>
+        <v>0.009167000979759728</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.8638146666666667</v>
+        <v>0.459987</v>
       </c>
       <c r="H16">
-        <v>2.591444</v>
+        <v>1.379961</v>
       </c>
       <c r="I16">
-        <v>0.02900355823095177</v>
+        <v>0.05828520092701431</v>
       </c>
       <c r="J16">
-        <v>0.02900355823095177</v>
+        <v>0.0582852009270143</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.479019</v>
+        <v>0.9285883333333333</v>
       </c>
       <c r="N16">
-        <v>1.437057</v>
+        <v>2.785765</v>
       </c>
       <c r="O16">
-        <v>0.2609782208964982</v>
+        <v>0.3522695673736974</v>
       </c>
       <c r="P16">
-        <v>0.2609782208964982</v>
+        <v>0.3522695673736974</v>
       </c>
       <c r="Q16">
-        <v>0.4137836378120001</v>
+        <v>0.427138561685</v>
       </c>
       <c r="R16">
-        <v>3.724052740308</v>
+        <v>3.844247055165</v>
       </c>
       <c r="S16">
-        <v>0.007569297026781779</v>
+        <v>0.02053210251484836</v>
       </c>
       <c r="T16">
-        <v>0.00756929702678178</v>
+        <v>0.02053210251484835</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.8638146666666667</v>
+        <v>0.459987</v>
       </c>
       <c r="H17">
-        <v>2.591444</v>
+        <v>1.379961</v>
       </c>
       <c r="I17">
-        <v>0.02900355823095177</v>
+        <v>0.05828520092701431</v>
       </c>
       <c r="J17">
-        <v>0.02900355823095177</v>
+        <v>0.0582852009270143</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3063973333333334</v>
+        <v>0.2338156666666666</v>
       </c>
       <c r="N17">
-        <v>0.919192</v>
+        <v>0.7014469999999999</v>
       </c>
       <c r="O17">
-        <v>0.166930812641596</v>
+        <v>0.08870038615086982</v>
       </c>
       <c r="P17">
-        <v>0.166930812641596</v>
+        <v>0.08870038615086982</v>
       </c>
       <c r="Q17">
-        <v>0.2646705103608889</v>
+        <v>0.107552167063</v>
       </c>
       <c r="R17">
-        <v>2.382034593248</v>
+        <v>0.967969503567</v>
       </c>
       <c r="S17">
-        <v>0.004841587544990628</v>
+        <v>0.005169919829107205</v>
       </c>
       <c r="T17">
-        <v>0.004841587544990629</v>
+        <v>0.005169919829107204</v>
       </c>
     </row>
   </sheetData>
